--- a/biology/Médecine/British_Institute_of_Radiology/British_Institute_of_Radiology.xlsx
+++ b/biology/Médecine/British_Institute_of_Radiology/British_Institute_of_Radiology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le British Institute of Radiology (BIR) est une société savante de radiologie à but caritatif, basée à Londres au Royaume-Uni[1]. Créé le 2 avril 1897, il s’agit du plus ancien institut de ce type dans le monde[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le British Institute of Radiology (BIR) est une société savante de radiologie à but caritatif, basée à Londres au Royaume-Uni. Créé le 2 avril 1897, il s’agit du plus ancien institut de ce type dans le monde.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le British Institute of Radiology (BIR) est une société savante de radiologie à but caritatif, basée à Londres au Royaume-Uni. Créé le 2 avril 1897, il s’agit du plus ancien institut de ce type dans le monde.
 </t>
@@ -542,7 +556,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette société savante provient de deux structures distinctes : The X-Ray Society, créée en avril 1897, et la Röntgen Society. Ces deux structures ont été constituées à la suite de la découverte des rayons X par Wilhelm Röntgen en 1895. La fusion des deux sociétés pour former le BIR est officialisée en 1927. Le BIR est enregistré comme organisme de bienfaisance depuis 1963.
 D'après le British Institute of Radiology Mission Statement, les objectifs du BIR sont: 
@@ -576,24 +592,26 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La présidence du BIR a été assurée par :
-1897-98 : Silvanus P Thompson (en)[3]
+1897-98 : Silvanus P Thompson (en)
 1904-1905 : Charles Thurstan Holland (en)
 1905-1906 : Frederick Soddy
-1907-1908 : William Duddell[3]
+1907-1908 : William Duddell
 1909-1910 : Charles Phillips (en)
 1911-1912 : Alan Archibald Campbell-Swinton (en)
 1914-1915 : Alfred Pearce Gould (en)
-1922-1923 : Sir Humphry Rolleston (en)[3]
-1923-1924 : Oliver Lodge[3]
+1922-1923 : Sir Humphry Rolleston (en)
+1923-1924 : Oliver Lodge
 1925-1926 : Francis William Aston
 1929-1930 : Charles Thurstan Holland (en)
 1930-1931 : Charles Phillips (en)
 1942-1943 : William Valentine Mayneord (en)
-1973-1974 : Frank Farmer[3]
-2003-2004 : Janet Husband (en)[3]</t>
+1973-1974 : Frank Farmer
+2003-2004 : Janet Husband (en)</t>
         </is>
       </c>
     </row>
@@ -621,7 +639,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le British Institute of Radiology publie plusieurs journaux scientifiques :
 British Journal of Radiology5, the official journal of the British Institute of Radiology. Print (ISSN 0007-1285), Online (ISSN 1748-880X).
